--- a/Experiments/221213_ATP_regen/hand-mix.xlsx
+++ b/Experiments/221213_ATP_regen/hand-mix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/221213_ATP_regen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5639E39A-5AC8-6B41-AEFD-CFDDDE3AF962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF4AA3-5829-2442-914B-9710748DAFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="15840" xr2:uid="{4AFDC6FF-87B8-0244-9D7B-C50E5E7B4560}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>36 reactions</t>
   </si>
@@ -90,14 +90,112 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>HEPES</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actually add </t>
+  </si>
+  <si>
+    <t>40 ul in 400ul</t>
+  </si>
+  <si>
+    <t>or 10 ul in 200ul</t>
+  </si>
+  <si>
+    <t>Stds</t>
+  </si>
+  <si>
+    <t>Pyruvate</t>
+  </si>
+  <si>
+    <t>Malate</t>
+  </si>
+  <si>
+    <t>Succinate</t>
+  </si>
+  <si>
+    <t>Citrate</t>
+  </si>
+  <si>
+    <t>Std_1</t>
+  </si>
+  <si>
+    <t>Std_2</t>
+  </si>
+  <si>
+    <t>Std_3</t>
+  </si>
+  <si>
+    <t>Std_4</t>
+  </si>
+  <si>
+    <t>Std_5</t>
+  </si>
+  <si>
+    <t>In 500ul:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,13 +216,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,10 +249,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,25 +572,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F489079-A2AB-094E-B472-83DF290E97D5}">
-  <dimension ref="A3:N9"/>
+  <dimension ref="A3:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="135" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <f>36*22.5</f>
         <v>810</v>
@@ -484,14 +599,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -525,12 +640,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>250</v>
+      </c>
+      <c r="I8" s="2">
+        <v>932.95676000000003</v>
+      </c>
+      <c r="J8" s="2">
+        <v>250</v>
+      </c>
+      <c r="K8" s="2">
+        <v>50</v>
+      </c>
+      <c r="L8" s="3">
+        <v>50</v>
+      </c>
+      <c r="M8" s="3">
+        <v>25</v>
+      </c>
+      <c r="N8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -540,7 +694,7 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>10</v>
       </c>
       <c r="E9" s="2">
@@ -572,6 +726,317 @@
       </c>
       <c r="N9" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f>$B$5*B9/B8</f>
+        <v>19.780219780219777</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:N10" si="0">$B$5*C9/C8</f>
+        <v>16.2</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.24</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>13.023111596297346</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>32.4</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>32.4</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="O10">
+        <f>SUM(B10:N10)</f>
+        <v>351.94333137651705</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <f>810-O10</f>
+        <v>458.05666862348295</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="7">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7">
+        <v>25</v>
+      </c>
+      <c r="F17" s="7">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7">
+        <v>100</v>
+      </c>
+      <c r="I17" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="D19">
+        <v>0.25</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+      <c r="F19">
+        <v>0.25</v>
+      </c>
+      <c r="G19">
+        <v>0.25</v>
+      </c>
+      <c r="H19">
+        <v>0.25</v>
+      </c>
+      <c r="I19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>0.125</v>
+      </c>
+      <c r="D20">
+        <v>0.125</v>
+      </c>
+      <c r="E20">
+        <v>0.125</v>
+      </c>
+      <c r="F20">
+        <v>0.125</v>
+      </c>
+      <c r="G20">
+        <v>0.125</v>
+      </c>
+      <c r="H20">
+        <v>0.125</v>
+      </c>
+      <c r="I20">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="D21">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="E21">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="F21">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="G21">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="H21">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="I21">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2.5</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>2.5</v>
+      </c>
+      <c r="I24">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/221213_ATP_regen/hand-mix.xlsx
+++ b/Experiments/221213_ATP_regen/hand-mix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/221213_ATP_regen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF4AA3-5829-2442-914B-9710748DAFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A770F9A6-B529-C848-9CB2-61B387612709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="15840" xr2:uid="{4AFDC6FF-87B8-0244-9D7B-C50E5E7B4560}"/>
+    <workbookView xWindow="3160" yWindow="5280" windowWidth="27240" windowHeight="15840" xr2:uid="{4AFDC6FF-87B8-0244-9D7B-C50E5E7B4560}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A3:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="135" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" s="7">
         <v>50</v>
       </c>
@@ -904,7 +904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>42</v>
       </c>
@@ -930,7 +930,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>43</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -1008,12 +1008,12 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -1037,6 +1037,10 @@
       </c>
       <c r="I24">
         <v>2.5</v>
+      </c>
+      <c r="J24">
+        <f>SUM(C24:I24)</f>
+        <v>42.5</v>
       </c>
     </row>
   </sheetData>
